--- a/fuentes/contenidos/grado11/guion10/SolicitudGrafica_CN_11_10_REC_80.xlsx
+++ b/fuentes/contenidos/grado11/guion10/SolicitudGrafica_CN_11_10_REC_80.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion10\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8955" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28380" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Solicitud gráfica" sheetId="1" r:id="rId1"/>
     <sheet name="Ayuda" sheetId="2" r:id="rId2"/>
     <sheet name="Definición técnica de imagenes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -539,7 +534,17 @@
     <t xml:space="preserve">Ver descripción y observaciones </t>
   </si>
   <si>
-    <t>La imagen se busco con creative commons: https://www.google.com/search?site=imghp&amp;tbm=isch&amp;q=hibridaci%C3%B3n%20del%20carbono&amp;tbs=sur:fc#imgdii=_&amp;imgrc=K8Mu5BqmNXIr8M%253A%3BV0sRLFMFu_WvlM%3Bhttp%253A%252F%252Fupload.wikimedia.org%252Fwikipedia%252Fcommons%252Fe%252Fe8%252FTetrahedral-angle-3D-balls.png%3Bhttp%253A%252F%252Fde.wikipedia.org%252Fwiki%252FHybridorbital%3B1091%3B1100</t>
+    <r>
+      <t xml:space="preserve">La imagen se busco con creative commons: https://www.google.com/search?site=imghp&amp;tbm=isch&amp;q=hibridaci%C3%B3n%20del%20carbono&amp;tbs=sur:fc#imgdii=_&amp;imgrc=K8Mu5BqmNXIr8M%253A%3BV0sRLFMFu_WvlM%3Bhttp%253A%252F%252Fupload.wikimedia.org%252Fwikipedia%252Fcommons%252Fe%252Fe8%252FTetrahedral-angle-3D-balls.png%3Bhttp%253A%252F%252Fde.wikipedia.org%252Fwiki%252FHybridorbital%3B1091%3B1100                        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Century Gothic"/>
+      </rPr>
+      <t>CREDITO:http://commons.wikimedia.org/wiki/File:Tetrahedral-angle-3D-balls.png#/media/File:Tetrahedral-angle-3D-balls.png</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -549,7 +554,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -702,6 +707,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -954,11 +964,11 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -967,7 +977,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -975,17 +985,17 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -995,7 +1005,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1003,12 +1013,12 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,18 +1027,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1058,11 +1068,11 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1072,10 +1082,10 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1085,7 +1095,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -1159,16 +1169,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,23 +1186,23 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1661,7 +1671,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" sel="1" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropLines="16" dropStyle="combo" dx="33" fmlaLink="$K$44" fmlaRange="$K$4:$K$43" noThreeD="1" val="0"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1829,15 +1839,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1038225</xdr:colOff>
+          <xdr:colOff>1041400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1850,7 +1860,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1858,20 +1868,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1884,15 +1880,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1047750</xdr:colOff>
+          <xdr:colOff>1054100</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>863600</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1905,7 +1901,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1913,20 +1909,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1939,15 +1921,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>238125</xdr:rowOff>
+          <xdr:rowOff>241300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1960,7 +1942,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1968,20 +1950,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1996,13 +1964,13 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2015,7 +1983,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2023,20 +1991,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2049,15 +2003,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1019175</xdr:colOff>
+          <xdr:colOff>1016000</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>828675</xdr:colOff>
+          <xdr:colOff>825500</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2070,7 +2024,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2078,20 +2032,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2104,15 +2044,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2125,7 +2065,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2133,20 +2073,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2159,15 +2085,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>12700</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>485775</xdr:rowOff>
+          <xdr:rowOff>482600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
           <xdr:colOff>838200</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>714375</xdr:rowOff>
+          <xdr:rowOff>711200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2180,7 +2106,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2188,20 +2114,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:noFill/>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2534,33 +2446,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
+  <sheetPr codeName="Hoja1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="21" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20.5" style="2" customWidth="1"/>
-    <col min="10" max="10" width="34.875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="29.625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="20.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="34.83203125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="10.875" style="2"/>
+    <col min="14" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2572,7 +2484,7 @@
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>129</v>
@@ -2589,7 +2501,7 @@
       <c r="I2" s="49"/>
       <c r="J2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15.75">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -2604,7 +2516,7 @@
       <c r="I3" s="49"/>
       <c r="J3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>54</v>
@@ -2625,7 +2537,7 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="6" t="s">
         <v>1</v>
@@ -2647,7 +2559,7 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="16.5" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2660,7 +2572,7 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="33" t="s">
         <v>40</v>
@@ -2678,7 +2590,7 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
     </row>
-    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="9" customFormat="1" ht="16.5" thickBot="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
@@ -2698,7 +2610,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="26.25" thickBot="1">
       <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
@@ -2733,7 +2645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="200" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>142</v>
       </c>
@@ -2767,7 +2679,7 @@
       <c r="J10" s="14"/>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="200" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>150</v>
       </c>
@@ -2801,7 +2713,7 @@
       <c r="J11" s="19"/>
       <c r="K11" s="15"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="252.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="252.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>152</v>
       </c>
@@ -2827,11 +2739,11 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="19"/>
-      <c r="K12" s="19" t="s">
+      <c r="K12" s="21" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" s="12" customFormat="1">
       <c r="A13" s="13" t="str">
         <f t="shared" ref="A13:A18" si="4">IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),CONCATENATE(LEFT(A12,3),IF(MID(A12,4,2)+1&lt;10,CONCATENATE("0",MID(A12,4,2)+1))),"")</f>
         <v/>
@@ -2862,7 +2774,7 @@
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A14" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2893,7 +2805,7 @@
       <c r="J14" s="19"/>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="15">
       <c r="A15" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2924,7 +2836,7 @@
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="14.25">
       <c r="A16" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2955,7 +2867,7 @@
       <c r="J16" s="28"/>
       <c r="K16" s="30"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A17" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -2986,7 +2898,7 @@
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A18" s="13" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -3017,7 +2929,7 @@
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="14.25">
       <c r="A19" s="13" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),CONCATENATE(LEFT(A18,3),IF(MID(A18,4,2)+1&lt;10,CONCATENATE("0",MID(A18,4,2)+1),MID(A18,4,2)+1)),"")</f>
         <v/>
@@ -3048,7 +2960,7 @@
       <c r="J19" s="28"/>
       <c r="K19" s="30"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A20" s="13" t="str">
         <f t="shared" ref="A20:A83" si="5">IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),CONCATENATE(LEFT(A19,3),IF(MID(A19,4,2)+1&lt;10,CONCATENATE("0",MID(A19,4,2)+1),MID(A19,4,2)+1)),"")</f>
         <v/>
@@ -3079,7 +2991,7 @@
       <c r="J20" s="19"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A21" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3110,7 +3022,7 @@
       <c r="J21" s="21"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A22" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3141,7 +3053,7 @@
       <c r="J22" s="14"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A23" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3172,7 +3084,7 @@
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A24" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3203,7 +3115,7 @@
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A25" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3234,7 +3146,7 @@
       <c r="J25" s="14"/>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A26" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3265,7 +3177,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A27" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3296,7 +3208,7 @@
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A28" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3327,7 +3239,7 @@
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A29" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3358,7 +3270,7 @@
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A30" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3389,7 +3301,7 @@
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A31" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3420,7 +3332,7 @@
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A32" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3451,7 +3363,7 @@
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
     </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A33" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3482,7 +3394,7 @@
       <c r="J33" s="19"/>
       <c r="K33" s="19"/>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A34" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3513,7 +3425,7 @@
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A35" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3544,7 +3456,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="15"/>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A36" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3575,7 +3487,7 @@
       <c r="J36" s="14"/>
       <c r="K36" s="15"/>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A37" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3606,7 +3518,7 @@
       <c r="J37" s="22"/>
       <c r="K37" s="15"/>
     </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A38" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3637,7 +3549,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="15"/>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A39" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3668,7 +3580,7 @@
       <c r="J39" s="14"/>
       <c r="K39" s="15"/>
     </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A40" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3699,7 +3611,7 @@
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A41" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3730,7 +3642,7 @@
       <c r="J41" s="14"/>
       <c r="K41" s="15"/>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A42" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3761,7 +3673,7 @@
       <c r="J42" s="14"/>
       <c r="K42" s="15"/>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A43" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3792,7 +3704,7 @@
       <c r="J43" s="14"/>
       <c r="K43" s="15"/>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A44" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3823,7 +3735,7 @@
       <c r="J44" s="14"/>
       <c r="K44" s="15"/>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A45" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3854,7 +3766,7 @@
       <c r="J45" s="14"/>
       <c r="K45" s="15"/>
     </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A46" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3885,7 +3797,7 @@
       <c r="J46" s="14"/>
       <c r="K46" s="15"/>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A47" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3916,7 +3828,7 @@
       <c r="J47" s="14"/>
       <c r="K47" s="15"/>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A48" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3947,7 +3859,7 @@
       <c r="J48" s="14"/>
       <c r="K48" s="15"/>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A49" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -3978,7 +3890,7 @@
       <c r="J49" s="14"/>
       <c r="K49" s="15"/>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A50" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4009,7 +3921,7 @@
       <c r="J50" s="14"/>
       <c r="K50" s="15"/>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A51" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4040,7 +3952,7 @@
       <c r="J51" s="14"/>
       <c r="K51" s="15"/>
     </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A52" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4071,7 +3983,7 @@
       <c r="J52" s="14"/>
       <c r="K52" s="15"/>
     </row>
-    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A53" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4102,7 +4014,7 @@
       <c r="J53" s="14"/>
       <c r="K53" s="15"/>
     </row>
-    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A54" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4133,7 +4045,7 @@
       <c r="J54" s="14"/>
       <c r="K54" s="15"/>
     </row>
-    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A55" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4164,7 +4076,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="15"/>
     </row>
-    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A56" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4195,7 +4107,7 @@
       <c r="J56" s="14"/>
       <c r="K56" s="15"/>
     </row>
-    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A57" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4226,7 +4138,7 @@
       <c r="J57" s="14"/>
       <c r="K57" s="15"/>
     </row>
-    <row r="58" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A58" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4257,7 +4169,7 @@
       <c r="J58" s="14"/>
       <c r="K58" s="15"/>
     </row>
-    <row r="59" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A59" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4288,7 +4200,7 @@
       <c r="J59" s="14"/>
       <c r="K59" s="15"/>
     </row>
-    <row r="60" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A60" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4319,7 +4231,7 @@
       <c r="J60" s="14"/>
       <c r="K60" s="15"/>
     </row>
-    <row r="61" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A61" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4350,7 +4262,7 @@
       <c r="J61" s="14"/>
       <c r="K61" s="15"/>
     </row>
-    <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A62" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4381,7 +4293,7 @@
       <c r="J62" s="14"/>
       <c r="K62" s="15"/>
     </row>
-    <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A63" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4412,7 +4324,7 @@
       <c r="J63" s="14"/>
       <c r="K63" s="15"/>
     </row>
-    <row r="64" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A64" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4443,7 +4355,7 @@
       <c r="J64" s="14"/>
       <c r="K64" s="15"/>
     </row>
-    <row r="65" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A65" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4474,7 +4386,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="15"/>
     </row>
-    <row r="66" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A66" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4505,7 +4417,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="15"/>
     </row>
-    <row r="67" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A67" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4536,7 +4448,7 @@
       <c r="J67" s="14"/>
       <c r="K67" s="15"/>
     </row>
-    <row r="68" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A68" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4567,7 +4479,7 @@
       <c r="J68" s="14"/>
       <c r="K68" s="15"/>
     </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A69" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4598,7 +4510,7 @@
       <c r="J69" s="14"/>
       <c r="K69" s="15"/>
     </row>
-    <row r="70" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A70" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4629,7 +4541,7 @@
       <c r="J70" s="14"/>
       <c r="K70" s="15"/>
     </row>
-    <row r="71" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A71" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4660,7 +4572,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="15"/>
     </row>
-    <row r="72" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A72" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4691,7 +4603,7 @@
       <c r="J72" s="14"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A73" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4722,7 +4634,7 @@
       <c r="J73" s="14"/>
       <c r="K73" s="15"/>
     </row>
-    <row r="74" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A74" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4753,7 +4665,7 @@
       <c r="J74" s="14"/>
       <c r="K74" s="15"/>
     </row>
-    <row r="75" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A75" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4784,7 +4696,7 @@
       <c r="J75" s="14"/>
       <c r="K75" s="15"/>
     </row>
-    <row r="76" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A76" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4815,7 +4727,7 @@
       <c r="J76" s="14"/>
       <c r="K76" s="15"/>
     </row>
-    <row r="77" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A77" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4846,7 +4758,7 @@
       <c r="J77" s="14"/>
       <c r="K77" s="15"/>
     </row>
-    <row r="78" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A78" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4877,7 +4789,7 @@
       <c r="J78" s="14"/>
       <c r="K78" s="15"/>
     </row>
-    <row r="79" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A79" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4908,7 +4820,7 @@
       <c r="J79" s="14"/>
       <c r="K79" s="15"/>
     </row>
-    <row r="80" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A80" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4939,7 +4851,7 @@
       <c r="J80" s="14"/>
       <c r="K80" s="15"/>
     </row>
-    <row r="81" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A81" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -4970,7 +4882,7 @@
       <c r="J81" s="14"/>
       <c r="K81" s="15"/>
     </row>
-    <row r="82" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A82" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5001,7 +4913,7 @@
       <c r="J82" s="14"/>
       <c r="K82" s="15"/>
     </row>
-    <row r="83" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A83" s="13" t="str">
         <f t="shared" si="5"/>
         <v/>
@@ -5032,7 +4944,7 @@
       <c r="J83" s="14"/>
       <c r="K83" s="15"/>
     </row>
-    <row r="84" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A84" s="13" t="str">
         <f t="shared" ref="A84:A108" si="9">IF(OR(B84&lt;&gt;"",J84&lt;&gt;""),CONCATENATE(LEFT(A83,3),IF(MID(A83,4,2)+1&lt;10,CONCATENATE("0",MID(A83,4,2)+1),MID(A83,4,2)+1)),"")</f>
         <v/>
@@ -5063,7 +4975,7 @@
       <c r="J84" s="14"/>
       <c r="K84" s="15"/>
     </row>
-    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A85" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5094,7 +5006,7 @@
       <c r="J85" s="14"/>
       <c r="K85" s="15"/>
     </row>
-    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A86" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5125,7 +5037,7 @@
       <c r="J86" s="14"/>
       <c r="K86" s="15"/>
     </row>
-    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A87" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5156,7 +5068,7 @@
       <c r="J87" s="14"/>
       <c r="K87" s="15"/>
     </row>
-    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A88" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5187,7 +5099,7 @@
       <c r="J88" s="14"/>
       <c r="K88" s="15"/>
     </row>
-    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A89" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5218,7 +5130,7 @@
       <c r="J89" s="14"/>
       <c r="K89" s="15"/>
     </row>
-    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A90" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5249,7 +5161,7 @@
       <c r="J90" s="14"/>
       <c r="K90" s="15"/>
     </row>
-    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A91" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5280,7 +5192,7 @@
       <c r="J91" s="14"/>
       <c r="K91" s="15"/>
     </row>
-    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A92" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5311,7 +5223,7 @@
       <c r="J92" s="14"/>
       <c r="K92" s="15"/>
     </row>
-    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A93" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5342,7 +5254,7 @@
       <c r="J93" s="14"/>
       <c r="K93" s="15"/>
     </row>
-    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A94" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5373,7 +5285,7 @@
       <c r="J94" s="14"/>
       <c r="K94" s="15"/>
     </row>
-    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A95" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5404,7 +5316,7 @@
       <c r="J95" s="14"/>
       <c r="K95" s="15"/>
     </row>
-    <row r="96" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A96" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5435,7 +5347,7 @@
       <c r="J96" s="14"/>
       <c r="K96" s="15"/>
     </row>
-    <row r="97" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A97" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5466,7 +5378,7 @@
       <c r="J97" s="14"/>
       <c r="K97" s="15"/>
     </row>
-    <row r="98" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A98" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5497,7 +5409,7 @@
       <c r="J98" s="14"/>
       <c r="K98" s="15"/>
     </row>
-    <row r="99" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A99" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5528,7 +5440,7 @@
       <c r="J99" s="14"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A100" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5559,7 +5471,7 @@
       <c r="J100" s="14"/>
       <c r="K100" s="15"/>
     </row>
-    <row r="101" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A101" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5590,7 +5502,7 @@
       <c r="J101" s="14"/>
       <c r="K101" s="15"/>
     </row>
-    <row r="102" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A102" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5621,7 +5533,7 @@
       <c r="J102" s="14"/>
       <c r="K102" s="15"/>
     </row>
-    <row r="103" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A103" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5652,7 +5564,7 @@
       <c r="J103" s="14"/>
       <c r="K103" s="15"/>
     </row>
-    <row r="104" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A104" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5683,7 +5595,7 @@
       <c r="J104" s="14"/>
       <c r="K104" s="15"/>
     </row>
-    <row r="105" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A105" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5714,7 +5626,7 @@
       <c r="J105" s="14"/>
       <c r="K105" s="15"/>
     </row>
-    <row r="106" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A106" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5745,7 +5657,7 @@
       <c r="J106" s="14"/>
       <c r="K106" s="15"/>
     </row>
-    <row r="107" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A107" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5776,7 +5688,7 @@
       <c r="J107" s="14"/>
       <c r="K107" s="15"/>
     </row>
-    <row r="108" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="12" customFormat="1" ht="15">
       <c r="A108" s="13" t="str">
         <f t="shared" si="9"/>
         <v/>
@@ -5855,8 +5767,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5867,25 +5779,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
+  <sheetPr codeName="Hoja2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="31" customWidth="1"/>
-    <col min="2" max="2" width="11" style="31"/>
-    <col min="3" max="3" width="13.875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="31" customWidth="1"/>
-    <col min="5" max="7" width="11" style="31"/>
+    <col min="1" max="1" width="72.1640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="31"/>
+    <col min="3" max="3" width="13.83203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="31" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="31"/>
     <col min="8" max="11" width="11" style="31" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="31"/>
+    <col min="12" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1">
       <c r="A1" s="90" t="s">
         <v>38</v>
       </c>
@@ -5895,7 +5807,7 @@
       <c r="E1" s="91"/>
       <c r="F1" s="92"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="39" t="s">
         <v>42</v>
       </c>
@@ -5907,7 +5819,7 @@
       <c r="E2" s="95"/>
       <c r="F2" s="41"/>
     </row>
-    <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="63">
       <c r="A3" s="42" t="s">
         <v>43</v>
       </c>
@@ -5931,7 +5843,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="31.5">
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
@@ -5959,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="79.5" thickBot="1">
       <c r="A5" s="42" t="s">
         <v>45</v>
       </c>
@@ -5986,7 +5898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="32.25" thickBot="1">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -6008,7 +5920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="48" thickBot="1">
       <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
@@ -6035,7 +5947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="47.25">
       <c r="A8" s="42" t="s">
         <v>53</v>
       </c>
@@ -6054,7 +5966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="47.25">
       <c r="A9" s="42" t="s">
         <v>12</v>
       </c>
@@ -6073,7 +5985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="32.25" thickBot="1">
       <c r="A10" s="43" t="s">
         <v>36</v>
       </c>
@@ -6092,7 +6004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="I11" s="31" t="s">
         <v>32</v>
       </c>
@@ -6103,7 +6015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.5" thickBot="1">
       <c r="I12" s="31" t="s">
         <v>37</v>
       </c>
@@ -6114,7 +6026,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="90" t="s">
         <v>41</v>
       </c>
@@ -6133,7 +6045,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" thickBot="1">
       <c r="A14" s="42"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -6150,7 +6062,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="39" t="s">
         <v>46</v>
       </c>
@@ -6168,7 +6080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="67.25" customHeight="1">
       <c r="A16" s="42" t="s">
         <v>47</v>
       </c>
@@ -6192,7 +6104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="32" customHeight="1" thickBot="1">
       <c r="A17" s="39" t="s">
         <v>44</v>
       </c>
@@ -6213,7 +6125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="79.5" thickBot="1">
       <c r="A18" s="42" t="s">
         <v>48</v>
       </c>
@@ -6234,7 +6146,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="39" t="s">
         <v>10</v>
       </c>
@@ -6253,7 +6165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="63.75" thickBot="1">
       <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
@@ -6275,7 +6187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="H21" s="31" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
@@ -6292,122 +6204,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="K22" s="31">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="K23" s="31">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="K24" s="31">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="K25" s="31">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="K26" s="31">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="K27" s="31">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="K28" s="31">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="K29" s="31">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="K30" s="31">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="K31" s="31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="K32" s="31">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="11:11">
       <c r="K33" s="31">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="11:11">
       <c r="K34" s="31">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="11:11">
       <c r="K35" s="31">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="11:11">
       <c r="K36" s="31">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="11:11">
       <c r="K37" s="31">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="11:11">
       <c r="K38" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="11:11">
       <c r="K39" s="31">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="11:11">
       <c r="K40" s="31">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="11:11">
       <c r="K41" s="31">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="11:11">
       <c r="K42" s="31">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="11:11">
       <c r="K43" s="31">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="11:11">
       <c r="K44" s="31">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="11:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="11:11">
       <c r="K45" s="31" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
@@ -6426,169 +6338,182 @@
     <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1030" r:id="rId4" name="Drop Down 6">
+            <control shapeId="1030" r:id="rId3" name="Drop Down 6">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1031" r:id="rId5" name="Drop Down 7">
+            <control shapeId="1031" r:id="rId4" name="Drop Down 7">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1019175</xdr:colOff>
+                    <xdr:colOff>1016000</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>828675</xdr:colOff>
+                    <xdr:colOff>825500</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1032" r:id="rId6" name="Drop Down 8">
+            <control shapeId="1032" r:id="rId5" name="Drop Down 8">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1035" r:id="rId7" name="Drop Down 11">
+            <control shapeId="1035" r:id="rId6" name="Drop Down 11">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>485775</xdr:rowOff>
+                    <xdr:rowOff>482600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
                     <xdr:colOff>838200</xdr:colOff>
                     <xdr:row>15</xdr:row>
-                    <xdr:rowOff>714375</xdr:rowOff>
+                    <xdr:rowOff>711200</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Drop Down 2">
+            <control shapeId="1026" r:id="rId7" name="Drop Down 2">
               <controlPr defaultSize="0" autoLine="0" autoPict="0" macro="[0]!Listadesplegable2_Cambiar">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1038225</xdr:colOff>
+                    <xdr:colOff>1041400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1028" r:id="rId9" name="Drop Down 4">
+            <control shapeId="1028" r:id="rId8" name="Drop Down 4">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>2</xdr:col>
-                    <xdr:colOff>1047750</xdr:colOff>
+                    <xdr:colOff>1054100</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>3</xdr:col>
-                    <xdr:colOff>866775</xdr:colOff>
+                    <xdr:colOff>863600</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1029" r:id="rId10" name="Drop Down 5">
+            <control shapeId="1029" r:id="rId9" name="Drop Down 5">
               <controlPr defaultSize="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
+                    <xdr:rowOff>12700</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>5</xdr:col>
-                    <xdr:colOff>9525</xdr:colOff>
+                    <xdr:colOff>12700</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>238125</xdr:rowOff>
+                    <xdr:rowOff>241300</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
             </control>
           </mc:Choice>
+          <mc:Fallback/>
         </mc:AlternateContent>
       </controls>
     </mc:Choice>
+    <mc:Fallback/>
   </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6601,23 +6526,23 @@
       <selection pane="bottomLeft" activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="21" style="31" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="31" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="31"/>
-    <col min="5" max="5" width="11.75" style="31" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="31" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="31"/>
+    <col min="5" max="5" width="11.6640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="11" style="31" customWidth="1"/>
     <col min="8" max="8" width="24.5" style="31" customWidth="1"/>
-    <col min="9" max="9" width="22.25" style="31" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="31" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="31" customWidth="1"/>
     <col min="11" max="11" width="44.5" style="31" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="31"/>
+    <col min="12" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="104" t="s">
         <v>56</v>
       </c>
@@ -6645,7 +6570,7 @@
       <c r="I1" s="105"/>
       <c r="J1" s="105"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="104"/>
       <c r="B2" s="104"/>
       <c r="C2" s="104"/>
@@ -6663,7 +6588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="52" customFormat="1">
       <c r="A3" s="51" t="s">
         <v>69</v>
       </c>
@@ -6687,7 +6612,7 @@
       <c r="I3" s="51"/>
       <c r="J3" s="51"/>
     </row>
-    <row r="4" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="52" customFormat="1">
       <c r="A4" s="53" t="s">
         <v>57</v>
       </c>
@@ -6715,7 +6640,7 @@
       </c>
       <c r="J4" s="53"/>
     </row>
-    <row r="5" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="52" customFormat="1">
       <c r="A5" s="54" t="s">
         <v>77</v>
       </c>
@@ -6743,7 +6668,7 @@
       </c>
       <c r="J5" s="55"/>
     </row>
-    <row r="6" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="52" customFormat="1">
       <c r="A6" s="53" t="s">
         <v>58</v>
       </c>
@@ -6775,7 +6700,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="52" customFormat="1" ht="25.5">
       <c r="A7" s="53" t="s">
         <v>80</v>
       </c>
@@ -6803,7 +6728,7 @@
       </c>
       <c r="J7" s="53"/>
     </row>
-    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="52" customFormat="1" ht="25.5">
       <c r="A8" s="53" t="s">
         <v>82</v>
       </c>
@@ -6831,7 +6756,7 @@
       </c>
       <c r="J8" s="53"/>
     </row>
-    <row r="9" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="52" customFormat="1">
       <c r="A9" s="53" t="s">
         <v>84</v>
       </c>
@@ -6859,7 +6784,7 @@
       </c>
       <c r="J9" s="53"/>
     </row>
-    <row r="10" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="52" customFormat="1">
       <c r="A10" s="53" t="s">
         <v>86</v>
       </c>
@@ -6885,7 +6810,7 @@
       </c>
       <c r="J10" s="53"/>
     </row>
-    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="52" customFormat="1" ht="25.5">
       <c r="A11" s="53" t="s">
         <v>89</v>
       </c>
@@ -6913,7 +6838,7 @@
       </c>
       <c r="J11" s="53"/>
     </row>
-    <row r="12" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="52" customFormat="1">
       <c r="A12" s="53" t="s">
         <v>91</v>
       </c>
@@ -6941,7 +6866,7 @@
       </c>
       <c r="J12" s="53"/>
     </row>
-    <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="63">
       <c r="A13" s="56" t="s">
         <v>93</v>
       </c>
@@ -6968,7 +6893,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="56" t="s">
         <v>97</v>
       </c>
@@ -6992,7 +6917,7 @@
       </c>
       <c r="J14" s="56"/>
     </row>
-    <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="31.5">
       <c r="A15" s="56" t="s">
         <v>99</v>
       </c>
@@ -7019,7 +6944,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="94.5">
       <c r="A16" s="58" t="s">
         <v>103</v>
       </c>
@@ -7048,7 +6973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="25.5">
       <c r="A17" s="53" t="s">
         <v>106</v>
       </c>
@@ -7077,12 +7002,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="62" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="63" t="s">
         <v>113</v>
       </c>
@@ -7095,7 +7020,7 @@
       <c r="D21" s="64"/>
       <c r="E21" s="64"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="66" t="s">
         <v>114</v>
       </c>
@@ -7108,7 +7033,7 @@
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="66" t="s">
         <v>115</v>
       </c>
@@ -7121,7 +7046,7 @@
       <c r="D23" s="67"/>
       <c r="E23" s="67"/>
     </row>
-    <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="31.5">
       <c r="A24" s="66" t="s">
         <v>116</v>
       </c>
@@ -7134,7 +7059,7 @@
       <c r="D24" s="67"/>
       <c r="E24" s="67"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="66" t="s">
         <v>117</v>
       </c>
@@ -7147,7 +7072,7 @@
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
     </row>
-    <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="63">
       <c r="A26" s="66" t="s">
         <v>118</v>
       </c>
@@ -7173,5 +7098,10 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>